--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>日期</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>才看一小部分</t>
+  </si>
+  <si>
+    <t>上午8:00-11:50</t>
+  </si>
+  <si>
+    <t>看数学之美与概率论课本</t>
+  </si>
+  <si>
+    <t>扫清了许多盲点</t>
+  </si>
+  <si>
+    <t>下午2:00-21:00</t>
+  </si>
+  <si>
+    <t>看数学之美与NLP的每个大体流程</t>
+  </si>
+  <si>
+    <t>了解了NLP的大体流程，了解了基础模型及其原理</t>
   </si>
 </sst>
 </file>
@@ -361,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +434,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -716,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -795,6 +819,32 @@
       </c>
       <c r="D6" s="8" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="20">
+        <v>43663</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>日期</t>
   </si>
@@ -242,12 +242,51 @@
   <si>
     <t>了解了NLP的大体流程，了解了基础模型及其原理</t>
   </si>
+  <si>
+    <t>安装并且了解Anaconda3</t>
+  </si>
+  <si>
+    <t>通过电子书来学习文本分类需要的算法</t>
+  </si>
+  <si>
+    <t>基本上完成了</t>
+  </si>
+  <si>
+    <t>重点了解了决策树以及特征提取器的原理</t>
+  </si>
+  <si>
+    <t>上午8：00-11：30</t>
+  </si>
+  <si>
+    <t>1.继续学习Python自然语言</t>
+  </si>
+  <si>
+    <t>看了一部分</t>
+  </si>
+  <si>
+    <t>2.在Python中导入nltk</t>
+  </si>
+  <si>
+    <t>未下载完</t>
+  </si>
+  <si>
+    <t>3.把未看完的Python基础了解完</t>
+  </si>
+  <si>
+    <t>看《数学之美》</t>
+  </si>
+  <si>
+    <t>看《数学之美》了解统计语言模型</t>
+  </si>
+  <si>
+    <t>看《数学之美》了解统计语言模型中文分词，</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +360,15 @@
       <name val="黑体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -379,7 +427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,6 +487,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:D9"/>
     </sheetView>
   </sheetViews>
@@ -856,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -948,6 +1020,44 @@
         <v>41</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="22">
+        <v>43663</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -956,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1048,6 +1158,44 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="26">
+        <v>43663</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1147,6 +1295,44 @@
         <v>48</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A9" s="24">
+        <v>43663</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>日期</t>
   </si>
@@ -281,12 +281,212 @@
   <si>
     <t>看《数学之美》了解统计语言模型中文分词，</t>
   </si>
+  <si>
+    <t>安装NLTK并进行简单的使用</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>下午2：00-5：40</t>
+  </si>
+  <si>
+    <t>看数学之美的马可代夫模型，并与LAD模型相比较</t>
+  </si>
+  <si>
+    <t>马可代夫的原理能看懂，但是LAD到了共轭分布完全不懂</t>
+  </si>
+  <si>
+    <t>晚上7：00-9：00</t>
+  </si>
+  <si>
+    <t>复习概率论的贝叶斯，多项分布等等</t>
+  </si>
+  <si>
+    <t>调用bosonnlp接口实现关键词提取以及文本分类</t>
+  </si>
+  <si>
+    <t>研读数学之美电子书，并且了解python的一些进阶语法</t>
+  </si>
+  <si>
+    <t>书上的算法还是很难理解</t>
+  </si>
+  <si>
+    <t>学习使用Flask的WEB框架，并且调用NLP接口</t>
+  </si>
+  <si>
+    <t>基本搞定了</t>
+  </si>
+  <si>
+    <r>
+      <t>上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <t>看《数学之美》了解隐含马尔可夫模型，布尔代数，图论</t>
+  </si>
+  <si>
+    <r>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14:10-18:00</t>
+    </r>
+  </si>
+  <si>
+    <t>简要了解机器学习，深度学习，BP算法</t>
+  </si>
+  <si>
+    <r>
+      <t>晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19:10-21:30</t>
+    </r>
+  </si>
+  <si>
+    <t>看周志华《深度学习》</t>
+  </si>
+  <si>
+    <r>
+      <t>上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <t>1.在Python中导入nltk</t>
+  </si>
+  <si>
+    <t>2.看机器学习</t>
+  </si>
+  <si>
+    <t>看一部分</t>
+  </si>
+  <si>
+    <t>3.看有关nlp的视频</t>
+  </si>
+  <si>
+    <t>了解一部分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +569,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -427,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -512,6 +719,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -812,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -919,6 +1144,44 @@
         <v>54</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A11" s="31">
+        <v>43664</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -928,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1058,6 +1321,44 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="33">
+        <v>43664</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1066,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1196,18 +1497,55 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="29">
+        <v>43664</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1333,6 +1671,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A13" s="15">
+        <v>43664</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
   <si>
     <t>日期</t>
   </si>
@@ -480,6 +480,162 @@
   </si>
   <si>
     <t>了解一部分</t>
+  </si>
+  <si>
+    <t>看数学之美的信息的度量，现代语言处理</t>
+  </si>
+  <si>
+    <r>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2;20-5:50</t>
+    </r>
+  </si>
+  <si>
+    <t>数学之美的网络爬虫与图中间的关系，搜索引擎</t>
+  </si>
+  <si>
+    <r>
+      <t>晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7;00-9:00</t>
+    </r>
+  </si>
+  <si>
+    <t>如何对搜索到的页面进行排名</t>
+  </si>
+  <si>
+    <t>质量看了，相关性还没有看</t>
+  </si>
+  <si>
+    <r>
+      <t>上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8:00-11:40</t>
+    </r>
+  </si>
+  <si>
+    <t>重新建立新的项目并且导入flask以及调用nlp接口</t>
+  </si>
+  <si>
+    <t>有点小问题</t>
+  </si>
+  <si>
+    <r>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14:10-17:30</t>
+    </r>
+  </si>
+  <si>
+    <t>学习Flask_SQLalchemy</t>
+  </si>
+  <si>
+    <r>
+      <t>晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>19:00-21:30</t>
+    </r>
+  </si>
+  <si>
+    <t>继续学习数学之美</t>
+  </si>
+  <si>
+    <t>进展缓慢</t>
+  </si>
+  <si>
+    <t>1.继续学习机器学习第二章</t>
+  </si>
+  <si>
+    <t>学习一部分</t>
+  </si>
+  <si>
+    <r>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14:30-18:00</t>
+    </r>
+  </si>
+  <si>
+    <t>2.学习flask</t>
+  </si>
+  <si>
+    <t>一部分</t>
+  </si>
+  <si>
+    <r>
+      <t>晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18:40-21:30</t>
+    </r>
+  </si>
+  <si>
+    <t>3.看正则表达式</t>
+  </si>
+  <si>
+    <t>看《数学之美》了解有限状态机，动态规划，余弦定理与新闻分类。</t>
+  </si>
+  <si>
+    <t>了解学习Python的Flask前端框架</t>
+  </si>
+  <si>
+    <t>继续学习Flask前端框架</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1182,6 +1338,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A15" s="15">
+        <v>43665</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B16" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B17" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1191,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1359,18 +1551,55 @@
         <v>79</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="15">
+        <v>43665</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B18" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1533,6 +1762,42 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="29">
+        <v>43665</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B18" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1542,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1707,6 +1972,42 @@
         <v>91</v>
       </c>
     </row>
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="15">
+        <v>43665</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B18" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="162">
   <si>
     <t>日期</t>
   </si>
@@ -636,6 +636,156 @@
   </si>
   <si>
     <t>继续学习Flask前端框架</t>
+  </si>
+  <si>
+    <t>1.看Python自然语言</t>
+  </si>
+  <si>
+    <t>看部分</t>
+  </si>
+  <si>
+    <t>2.看flask</t>
+  </si>
+  <si>
+    <t>3.试着写一些正则表达式</t>
+  </si>
+  <si>
+    <t>请假了</t>
+  </si>
+  <si>
+    <t>1.下载vue的一些东西</t>
+  </si>
+  <si>
+    <t>2.试着创建vue项目</t>
+  </si>
+  <si>
+    <t>1.了解vue的数据，方法，属性绑定，事件</t>
+  </si>
+  <si>
+    <t>2.了解vue的事件修饰符，键盘事件及键盘值修饰符</t>
+  </si>
+  <si>
+    <t>3.学习vue双向数据绑定，计算属性，动态绑定css</t>
+  </si>
+  <si>
+    <t>1.学习vue的v-if、v-for指令，写一个简单的案例</t>
+  </si>
+  <si>
+    <t>2.学习vue初始组件的应用，搭建脚手架CLI，及部分详细内容</t>
+  </si>
+  <si>
+    <t>3.看自然语言文档</t>
+  </si>
+  <si>
+    <t>看了一小部分</t>
+  </si>
+  <si>
+    <t>1.学习vue的组件嵌套，组件css作用域</t>
+  </si>
+  <si>
+    <t>2.学习vue的属性值props，传值和传引用，事件传值（子传父）</t>
+  </si>
+  <si>
+    <t>3.学习vue的生命周期钩子，路由和请求</t>
+  </si>
+  <si>
+    <t>全体开例会，学长讲了一下前端界面设计，刘老师帮我们解答问题，确定下一步学习路线和方案</t>
+  </si>
+  <si>
+    <t>继续学习VUE框架</t>
+  </si>
+  <si>
+    <t>继续学习VUE</t>
+  </si>
+  <si>
+    <t>学习Vue，组件及其嵌套，属性传值，事件传值路由及请求</t>
+  </si>
+  <si>
+    <t>学习Vue，实现一个简单的Vue项目</t>
+  </si>
+  <si>
+    <t>尝试利用Vue实现NLP前端页面</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>实现基本前端页面框架</t>
+  </si>
+  <si>
+    <t>优化，美化，前端页面</t>
+  </si>
+  <si>
+    <t>为实现前后端连接做准备准备</t>
+  </si>
+  <si>
+    <t>将springboot中使用hanlp接口</t>
+  </si>
+  <si>
+    <r>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>14:00-18:00</t>
+    </r>
+  </si>
+  <si>
+    <t>重新使用spring  以及   springboot  等java框架</t>
+  </si>
+  <si>
+    <t>阅读《数学之美》书籍</t>
+  </si>
+  <si>
+    <t>全体开会</t>
+  </si>
+  <si>
+    <t>使用springboot来将hanlp的调用起来并且使用vue的方法加入Echarts来展示</t>
+  </si>
+  <si>
+    <t>使用python调用pyhanlp的接口</t>
+  </si>
+  <si>
+    <t>进度有些慢</t>
+  </si>
+  <si>
+    <t>使用百度的接口来调用文本分类与聚类等</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>搭建自己小组的前端框架以及加入vcharts来展示数据</t>
+  </si>
+  <si>
+    <t>学习使用springboot的技术来改进以及搭建过的后端</t>
+  </si>
+  <si>
+    <t>正在进行</t>
+  </si>
+  <si>
+    <t>继续学习springboot的建立</t>
+  </si>
+  <si>
+    <t>将前后端数据连接起来</t>
+  </si>
+  <si>
+    <t>学习动态改变饼图数据</t>
+  </si>
+  <si>
+    <t>完成！</t>
+  </si>
+  <si>
+    <t>将全端框架优化改进</t>
+  </si>
+  <si>
+    <t>将后端改为python</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1383,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D19"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1587,6 +1737,186 @@
         <v>105</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="15">
+        <v>43666</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B22" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B23" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A25" s="15">
+        <v>43668</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B26" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B27" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A29" s="15">
+        <v>43669</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B30" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B31" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="15">
+        <v>43670</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B34" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B35" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="15">
+        <v>43671</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B38" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B39" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1596,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1798,6 +2128,114 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="29">
+        <v>43668</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B22" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B23" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="29">
+        <v>43669</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B25" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B26" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="29">
+        <v>43670</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B28" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B29" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1807,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -2008,6 +2446,183 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A21" s="15">
+        <v>43666</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B22" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B23" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A24" s="15">
+        <v>43668</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B25" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B26" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="15">
+        <v>43669</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B28" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B29" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A30" s="15">
+        <v>43670</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B31" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B32" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="15">
+        <v>43671</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B34" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B35" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
   <si>
     <t>日期</t>
   </si>
@@ -786,6 +786,232 @@
   </si>
   <si>
     <t>将后端改为python</t>
+  </si>
+  <si>
+    <r>
+      <t>上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>看斯坦福的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NLP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视频</t>
+    </r>
+  </si>
+  <si>
+    <t>进行缓慢，正在进行</t>
+  </si>
+  <si>
+    <r>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>安装并学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pytorch</t>
+    </r>
+  </si>
+  <si>
+    <t>安装遇到了极大的挫折</t>
+  </si>
+  <si>
+    <r>
+      <t>晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>简单的使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pytorch</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1343,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A19" sqref="A19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1513,7 +1739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1">
       <c r="B17" s="34" t="s">
         <v>95</v>
       </c>
@@ -1522,6 +1748,42 @@
       </c>
       <c r="D17" s="7" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A19" s="15">
+        <v>43673</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B20" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B21" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
   <si>
     <t>日期</t>
   </si>
@@ -1012,6 +1012,117 @@
       </rPr>
       <t>Pytorch</t>
     </r>
+  </si>
+  <si>
+    <t>明确了一下这周的任务，调了一下电脑</t>
+  </si>
+  <si>
+    <r>
+      <t>下午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学习了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TF-IDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法，并且进行测试运行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学习了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PyTorch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的基本内容</t>
+    </r>
+  </si>
+  <si>
+    <t>只学了一小部分，正在进行</t>
   </si>
 </sst>
 </file>
@@ -1569,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D21"/>
+      <selection activeCell="A23" sqref="A23:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1784,6 +1895,42 @@
       </c>
       <c r="D21" s="7" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A23" s="15">
+        <v>43675</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B24" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B25" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
   <si>
     <t>日期</t>
   </si>
@@ -1123,13 +1123,196 @@
   </si>
   <si>
     <t>只学了一小部分，正在进行</t>
+  </si>
+  <si>
+    <r>
+      <t>学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pytorch</t>
+    </r>
+  </si>
+  <si>
+    <t>进行缓慢</t>
+  </si>
+  <si>
+    <t>搭建了一个简陋无比的神经网络，并学习了梯度下降算法</t>
+  </si>
+  <si>
+    <t>算法没有吃透</t>
+  </si>
+  <si>
+    <r>
+      <t>晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>对文章进行分析，并进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TF-IDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算</t>
+    </r>
+  </si>
+  <si>
+    <t>1.大致了解一下谷歌的BERT模型</t>
+  </si>
+  <si>
+    <t>2.学习使用springboot的配置文件进行精细化配置</t>
+  </si>
+  <si>
+    <t>1.开始了解并学习PyTorch</t>
+  </si>
+  <si>
+    <t>2.整合项目前后端</t>
+  </si>
+  <si>
+    <t>继续学习pytorch</t>
+  </si>
+  <si>
+    <t>开例会，小组内讨论</t>
+  </si>
+  <si>
+    <t>将小组的后端改为python接口</t>
+  </si>
+  <si>
+    <t>全力学习pytorch</t>
+  </si>
+  <si>
+    <t>上午8:10-11:40</t>
+  </si>
+  <si>
+    <t>具体学习了pytorch的1.回归算法2.分类</t>
+  </si>
+  <si>
+    <t>下午14:10-6:30</t>
+  </si>
+  <si>
+    <t>3.基本的函数4.快速建立Sequential5.批训练等</t>
+  </si>
+  <si>
+    <t>神经网络优化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">看《数学之美》了解维特比算法，文本分类—最大期望值算法
+</t>
+  </si>
+  <si>
+    <t>开始学习SpingBoot</t>
+  </si>
+  <si>
+    <t>继续学习SpingBoot</t>
+  </si>
+  <si>
+    <t>重新研究《数学之美》中的隐含马尔可夫模型</t>
+  </si>
+  <si>
+    <t>继续学习SpringBoot，实现SpringBootDEMO。</t>
+  </si>
+  <si>
+    <t>晚上优化文本分类前端显示</t>
+  </si>
+  <si>
+    <t>全体开例会，总结前两周工作，为接下来学习任务做计划，</t>
+  </si>
+  <si>
+    <t>开始学习PyTorch,继续了解TF-IDF,</t>
+  </si>
+  <si>
+    <t>继续学习PyTorch</t>
+  </si>
+  <si>
+    <t>整合项目前后端，发布到gitlab；开始了解并学习PyTorch。</t>
+  </si>
+  <si>
+    <t>开始了解并学习PyTorch。</t>
+  </si>
+  <si>
+    <t>继续学习PyTorch。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 全体开例会，总结前两周工作，为接下来学习任务做计划</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,6 +1402,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1277,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1380,6 +1572,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="12" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1680,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -1933,6 +2149,42 @@
         <v>174</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A27" s="15">
+        <v>43676</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B28" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B29" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1942,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -2326,6 +2578,176 @@
         <v>155</v>
       </c>
     </row>
+    <row r="41" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="35">
+        <v>43672</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+    </row>
+    <row r="45" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="37">
+        <v>43673</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+    </row>
+    <row r="49" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A49" s="35">
+        <v>43675</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+    </row>
+    <row r="53" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A53" s="35">
+        <v>43676</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2335,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -2643,6 +3065,196 @@
       </c>
       <c r="D29" s="7" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="40">
+        <v>43671</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A34" s="40">
+        <v>43672</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A37" s="40">
+        <v>43673</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A40" s="40">
+        <v>43674</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="40">
+        <v>43675</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/牛文涛小组.xlsx
+++ b/doc/log/牛文涛小组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="牛文涛" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="232">
   <si>
     <t>日期</t>
   </si>
@@ -1306,6 +1306,369 @@
   </si>
   <si>
     <t xml:space="preserve"> 全体开例会，总结前两周工作，为接下来学习任务做计划</t>
+  </si>
+  <si>
+    <r>
+      <t>实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TF-IDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法（对词语）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jieba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件进行分词</t>
+    </r>
+  </si>
+  <si>
+    <t>利用正则表达式实现分句，打算进行算句子的相似度</t>
+  </si>
+  <si>
+    <t>前者完成，后者没有</t>
+  </si>
+  <si>
+    <r>
+      <t>上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8;oo-11;50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件里读取内容，进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TF-IDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的计算</t>
+    </r>
+  </si>
+  <si>
+    <t>由于正则表达式不完美，一直在修改</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <r>
+      <t>继续进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TF-IDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的计算，并把结果写入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+  </si>
+  <si>
+    <t>把文章分句，并把句子分词</t>
+  </si>
+  <si>
+    <t>继续上午的内容</t>
+  </si>
+  <si>
+    <t>分句成功</t>
+  </si>
+  <si>
+    <r>
+      <t>跟学长一起探讨情况，把句子分词，计算词的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TF-IDF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>企图计算句子的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TF-IDF</t>
+    </r>
+  </si>
+  <si>
+    <t>和师兄、小组人讨论该怎么做好老师的任务</t>
+  </si>
+  <si>
+    <t>大有所获</t>
+  </si>
+  <si>
+    <t>划水</t>
+  </si>
+  <si>
+    <t>划水划得很成功</t>
+  </si>
+  <si>
+    <r>
+      <t>上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40</t>
+    </r>
+  </si>
+  <si>
+    <t>完成后端的如何计算句子的相似度</t>
+  </si>
+  <si>
+    <t>完成后端的如何计算文章的相似度</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>对今天所获得的成果进行进一步的优化结构</t>
+  </si>
+  <si>
+    <t>正在优化中，优化了一部分。</t>
   </si>
 </sst>
 </file>
@@ -1896,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
@@ -2183,6 +2546,186 @@
       </c>
       <c r="D29" s="7" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A31" s="15">
+        <v>43677</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B32" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B33" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A35" s="15">
+        <v>43678</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B36" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B37" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A39" s="15">
+        <v>43679</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B40" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B41" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A43" s="15">
+        <v>43680</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B44" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B45" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="A47" s="15">
+        <v>43689</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="B48" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="39.950000000000003" customHeight="1">
+      <c r="B49" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +3302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:D45"/>
     </sheetView>
   </sheetViews>
